--- a/cisteniDat/working.xlsx
+++ b/cisteniDat/working.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>hodina</t>
   </si>
@@ -26,13 +26,16 @@
     <t>prumer</t>
   </si>
   <si>
-    <t>hodiny</t>
-  </si>
-  <si>
     <t>ruzyne</t>
   </si>
   <si>
     <t>dejvice</t>
+  </si>
+  <si>
+    <t>ruzyne+2</t>
+  </si>
+  <si>
+    <t>ruzyne-2</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -583,11 +585,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>List2!$A$1</c:f>
+              <c:f>List2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hodiny</c:v>
+                  <c:v>dejvice</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -595,7 +597,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
               <c:f>List2!$A$2:$A$25</c:f>
               <c:numCache>
@@ -672,6 +674,87 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.166666666699999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.333333333300001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1666666666700003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3333333333299997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.6666666666700003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,11 +765,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>List2!$B$1</c:f>
+              <c:f>List2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>dejvice</c:v>
+                  <c:v>ruzyne</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -694,6 +777,321 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="78799232"/>
+        <c:axId val="78800768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78799232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78800768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78800768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78799232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dejvice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>List2!$B$2:$B$25</c:f>
@@ -771,6 +1169,186 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>7.6666666666700003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruzyne</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$C$2:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -781,135 +1359,500 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>List2!$C$1</c:f>
+              <c:f>List2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ruzyne</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>List2!$C$2:$C$25</c:f>
+              <c:f>List2!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8.33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.05</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.42</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7699999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2300000000000004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.34</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.57</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.57</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.87</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.09</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.95</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.41</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.19</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.68</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.23</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.68</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.69</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.01</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruzyne+2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1900000000000013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6900000000000013</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List2!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ruzyne-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>List2!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List2!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.68</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89748608"/>
-        <c:axId val="99099008"/>
+        <c:axId val="81402880"/>
+        <c:axId val="81416960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89748608"/>
+        <c:axId val="81402880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99099008"/>
+        <c:crossAx val="81416960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99099008"/>
+        <c:axId val="81416960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89748608"/>
+        <c:crossAx val="81402880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -926,8 +1869,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graf 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
@@ -939,7 +1912,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graf 2"/>
+        <xdr:cNvPr id="10" name="Graf 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -948,7 +1921,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1460,7 +2433,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2024,26 +2997,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="H9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <f>dejvice!A2</f>
         <v>0</v>
@@ -2053,11 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <f>ruzyne!F2</f>
-        <v>8.33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <f>ruzyne!F1</f>
+        <v>9.07</v>
+      </c>
+      <c r="E2">
+        <f>C2+2</f>
+        <v>11.07</v>
+      </c>
+      <c r="F2">
+        <f>C2-2</f>
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <f>dejvice!A3</f>
         <v>1</v>
@@ -2067,11 +3051,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <f>ruzyne!F3</f>
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <f>ruzyne!F2</f>
+        <v>8.33</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E25" si="0">C3+2</f>
+        <v>10.33</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="1">C3-2</f>
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <f>dejvice!A4</f>
         <v>2</v>
@@ -2081,11 +3073,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <f>ruzyne!F4</f>
-        <v>6.19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <f>ruzyne!F3</f>
+        <v>7.05</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <f>dejvice!A5</f>
         <v>3</v>
@@ -2095,11 +3095,19 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>ruzyne!F5</f>
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <f>ruzyne!F4</f>
+        <v>6.19</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>8.1900000000000013</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <f>dejvice!A6</f>
         <v>4</v>
@@ -2109,11 +3117,19 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <f>ruzyne!F6</f>
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <f>ruzyne!F5</f>
+        <v>5.42</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.42</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <f>dejvice!A7</f>
         <v>5</v>
@@ -2123,11 +3139,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f>ruzyne!F7</f>
-        <v>4.1399999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <f>ruzyne!F6</f>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.77</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.7699999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <f>dejvice!A8</f>
         <v>6</v>
@@ -2137,11 +3161,19 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f>ruzyne!F8</f>
-        <v>4.2300000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <f>ruzyne!F7</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.14</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <f>dejvice!A9</f>
         <v>7</v>
@@ -2151,11 +3183,19 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f>ruzyne!F9</f>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <f>ruzyne!F8</f>
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.23</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.2300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <f>dejvice!A10</f>
         <v>8</v>
@@ -2165,11 +3205,19 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <f>ruzyne!F10</f>
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <f>ruzyne!F9</f>
+        <v>5.2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <f>dejvice!A11</f>
         <v>9</v>
@@ -2179,11 +3227,19 @@
         <v>15.5</v>
       </c>
       <c r="C11">
-        <f>ruzyne!F11</f>
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <f>ruzyne!F10</f>
+        <v>6.34</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.34</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <f>dejvice!A12</f>
         <v>10</v>
@@ -2193,11 +3249,19 @@
         <v>9.8333333333299997</v>
       </c>
       <c r="C12">
-        <f>ruzyne!F12</f>
+        <f>ruzyne!F11</f>
         <v>7.57</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.57</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <f>dejvice!A13</f>
         <v>11</v>
@@ -2207,11 +3271,19 @@
         <v>13.166666666699999</v>
       </c>
       <c r="C13">
-        <f>ruzyne!F13</f>
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <f>ruzyne!F12</f>
+        <v>7.57</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9.57</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <f>dejvice!A14</f>
         <v>12</v>
@@ -2221,11 +3293,19 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <f>ruzyne!F14</f>
-        <v>9.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <f>ruzyne!F13</f>
+        <v>7.87</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9.870000000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <f>dejvice!A15</f>
         <v>13</v>
@@ -2235,11 +3315,19 @@
         <v>11.333333333300001</v>
       </c>
       <c r="C15">
-        <f>ruzyne!F15</f>
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <f>ruzyne!F14</f>
+        <v>9.09</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>11.09</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <f>dejvice!A16</f>
         <v>14</v>
@@ -2249,11 +3337,19 @@
         <v>11</v>
       </c>
       <c r="C16">
-        <f>ruzyne!F16</f>
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <f>ruzyne!F15</f>
+        <v>10.95</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>12.95</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <f>dejvice!A17</f>
         <v>15</v>
@@ -2263,11 +3359,19 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <f>ruzyne!F17</f>
-        <v>10.41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <f>ruzyne!F16</f>
+        <v>11.2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <f>dejvice!A18</f>
         <v>16</v>
@@ -2277,11 +3381,19 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <f>ruzyne!F18</f>
-        <v>10.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <f>ruzyne!F17</f>
+        <v>10.41</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12.41</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <f>dejvice!A19</f>
         <v>17</v>
@@ -2291,11 +3403,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <f>ruzyne!F19</f>
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <f>ruzyne!F18</f>
+        <v>10.19</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>12.19</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <f>dejvice!A20</f>
         <v>18</v>
@@ -2305,11 +3425,19 @@
         <v>9.1666666666700003</v>
       </c>
       <c r="C20">
-        <f>ruzyne!F20</f>
-        <v>9.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <f>ruzyne!F19</f>
+        <v>9.68</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>11.68</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <f>dejvice!A21</f>
         <v>19</v>
@@ -2319,11 +3447,19 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>ruzyne!F21</f>
-        <v>8.68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <f>ruzyne!F20</f>
+        <v>9.23</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>11.23</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <f>dejvice!A22</f>
         <v>20</v>
@@ -2333,11 +3469,19 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <f>ruzyne!F22</f>
-        <v>8.18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <f>ruzyne!F21</f>
+        <v>8.68</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <f>dejvice!A23</f>
         <v>21</v>
@@ -2347,11 +3491,19 @@
         <v>7.3333333333299997</v>
       </c>
       <c r="C23">
-        <f>ruzyne!F23</f>
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <f>ruzyne!F22</f>
+        <v>8.18</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>10.18</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <f>dejvice!A24</f>
         <v>22</v>
@@ -2361,11 +3513,19 @@
         <v>6.8</v>
       </c>
       <c r="C24">
-        <f>ruzyne!F24</f>
-        <v>7.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <f>ruzyne!F23</f>
+        <v>7.69</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9.6900000000000013</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <f>dejvice!A25</f>
         <v>23</v>
@@ -2375,8 +3535,16 @@
         <v>7.6666666666700003</v>
       </c>
       <c r="C25">
-        <f>ruzyne!F25</f>
-        <v>0</v>
+        <f>ruzyne!F24</f>
+        <v>7.01</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>9.01</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.01</v>
       </c>
     </row>
   </sheetData>
